--- a/res_img/resnet50-moreways-10k-size(768)-medium-trainset(1k)/动态.xlsx
+++ b/res_img/resnet50-moreways-10k-size(768)-medium-trainset(1k)/动态.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-moreways-10k-size(768)-medium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-moreways-10k-size(768)-medium-trainset(1k)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF5945E-A450-4990-8717-E067F1BB3296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B852AA78-BFA4-460A-87B4-1167F293035E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>map</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t>15k</t>
+  </si>
+  <si>
+    <t>15k——&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreways</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23/0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -179,7 +203,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8428258967629042E-2"/>
+          <c:y val="6.709499854184893E-2"/>
+          <c:w val="0.8782384076990376"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1831,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2109,6 +2143,88 @@
       </c>
       <c r="E16">
         <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f>SUM(B14:B16)/3</f>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:E19" si="0">SUM(C14:C16)/3</f>
+        <v>0.62266666666666659</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.67666666666666675</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.18900000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <v>128</v>
+      </c>
+      <c r="H24">
+        <v>256</v>
+      </c>
+      <c r="I24">
+        <v>512</v>
+      </c>
+      <c r="K24">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>512</v>
+      </c>
+      <c r="I27">
+        <v>1024</v>
+      </c>
+      <c r="K27">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>10000</v>
+      </c>
+      <c r="I29">
+        <v>15000</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/res_img/resnet50-moreways-10k-size(768)-medium-trainset(1k)/动态.xlsx
+++ b/res_img/resnet50-moreways-10k-size(768)-medium-trainset(1k)/动态.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-moreways-10k-size(768)-medium-trainset(1k)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B852AA78-BFA4-460A-87B4-1167F293035E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEDF38D-5331-4D39-B37D-61FE672940C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>map</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <t>15k</t>
   </si>
   <si>
-    <t>15k——&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,15 +112,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>moreways</t>
+    <t>3k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>anchor size</t>
+    <t>3 way</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.23/0.22</t>
+    <t>more ways</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutpaste methods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1565,16 +1565,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>672193</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>146956</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87084</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1865,15 +1865,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1906,8 +1906,11 @@
       <c r="E2">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="G2">
+        <v>0.27700000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1923,8 +1926,11 @@
       <c r="E3">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="G3">
+        <v>0.39500000000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1940,8 +1946,11 @@
       <c r="E4">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="G4">
+        <v>0.38300000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1957,8 +1966,11 @@
       <c r="E5">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="G5">
+        <v>0.47899999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1974,8 +1986,11 @@
       <c r="E6">
         <v>0.13500000000000001</v>
       </c>
+      <c r="G6">
+        <v>0.47399999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1991,8 +2006,11 @@
       <c r="E7">
         <v>0.157</v>
       </c>
+      <c r="G7">
+        <v>0.52700000000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2008,8 +2026,11 @@
       <c r="E8">
         <v>9.9000000000000005E-2</v>
       </c>
+      <c r="G8">
+        <v>0.52700000000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2025,8 +2046,11 @@
       <c r="E9">
         <v>0.121</v>
       </c>
+      <c r="G9">
+        <v>0.54900000000000004</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2042,8 +2066,11 @@
       <c r="E10">
         <v>0.14699999999999999</v>
       </c>
+      <c r="G10">
+        <v>0.53800000000000003</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2059,8 +2086,11 @@
       <c r="E11">
         <v>0.14799999999999999</v>
       </c>
+      <c r="G11">
+        <v>0.54700000000000004</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2076,8 +2106,11 @@
       <c r="E12">
         <v>0.11600000000000001</v>
       </c>
+      <c r="G12">
+        <v>0.55300000000000005</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2093,8 +2126,11 @@
       <c r="E13">
         <v>0.12</v>
       </c>
+      <c r="G13">
+        <v>0.55400000000000005</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2110,8 +2146,11 @@
       <c r="E14">
         <v>0.20100000000000001</v>
       </c>
+      <c r="G14">
+        <v>0.54600000000000004</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2127,8 +2166,11 @@
       <c r="E15">
         <v>0.20399999999999999</v>
       </c>
+      <c r="G15">
+        <v>0.57799999999999996</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2144,8 +2186,11 @@
       <c r="E16">
         <v>0.16200000000000001</v>
       </c>
+      <c r="G16">
+        <v>0.57799999999999996</v>
+      </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B19">
         <f>SUM(B14:B16)/3</f>
         <v>0.60199999999999998</v>
@@ -2163,68 +2208,254 @@
         <v>0.18900000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.317</v>
+      </c>
+      <c r="D23">
+        <v>0.42</v>
+      </c>
+      <c r="E23">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H23">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="K23">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="L23">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="M23">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="N23">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="O23">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="P23">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
-        <v>5</v>
+      <c r="B24">
+        <v>0.27</v>
+      </c>
+      <c r="C24">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D24">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="I24">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="J24">
+        <v>0.42</v>
+      </c>
+      <c r="K24">
+        <v>0.46</v>
+      </c>
+      <c r="L24">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O24">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="P24">
+        <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <v>64</v>
-      </c>
-      <c r="G24">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>256</v>
-      </c>
-      <c r="I24">
-        <v>512</v>
-      </c>
-      <c r="K24">
-        <v>768</v>
+      <c r="B25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C25">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.34</v>
+      </c>
+      <c r="F25">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.37</v>
+      </c>
+      <c r="H25">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.49</v>
+      </c>
+      <c r="L25">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N25">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="O25">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="P25">
+        <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H27">
-        <v>512</v>
-      </c>
-      <c r="I27">
-        <v>1024</v>
-      </c>
-      <c r="K27">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H29">
-        <v>10000</v>
-      </c>
-      <c r="I29">
-        <v>15000</v>
-      </c>
-      <c r="K29" t="s">
-        <v>25</v>
+      <c r="B26">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.312</v>
+      </c>
+      <c r="D26">
+        <v>0.34</v>
+      </c>
+      <c r="E26">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F26">
+        <v>0.35</v>
+      </c>
+      <c r="G26">
+        <v>0.42</v>
+      </c>
+      <c r="H26">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="I26">
+        <v>0.47</v>
+      </c>
+      <c r="J26">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.52</v>
+      </c>
+      <c r="L26">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="M26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N26">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="O26">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="P26">
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/res_img/resnet50-moreways-10k-size(768)-medium-trainset(1k)/动态.xlsx
+++ b/res_img/resnet50-moreways-10k-size(768)-medium-trainset(1k)/动态.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-moreways-10k-size(768)-medium-trainset(1k)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEDF38D-5331-4D39-B37D-61FE672940C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8091DF-C85A-40A4-A801-1BD682ED425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2734" yWindow="1971" windowWidth="16200" windowHeight="9969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
   <si>
     <t>map</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,15 +116,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 way</t>
+    <t>cutpaste methods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>more ways</t>
+    <t>map</t>
+  </si>
+  <si>
+    <t>aps</t>
+  </si>
+  <si>
+    <t>apm</t>
+  </si>
+  <si>
+    <t>apl</t>
+  </si>
+  <si>
+    <t>3way</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cutpaste methods</t>
+    <t>Aps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mAp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more-way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-way</t>
+  </si>
+  <si>
+    <t>3-way</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1865,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="AE47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ56" sqref="AJ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2208,9 +2243,14 @@
         <v>0.18900000000000003</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -2260,7 +2300,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>0.30199999999999999</v>
@@ -2287,7 +2327,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="J23">
-        <v>0.55800000000000005</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="K23">
         <v>0.55600000000000005</v>
@@ -2313,46 +2353,46 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>0.27</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="C24">
-        <v>0.28199999999999997</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D24">
-        <v>0.30199999999999999</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="E24">
-        <v>0.35199999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="F24">
-        <v>0.35299999999999998</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="G24">
-        <v>0.38300000000000001</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="H24">
-        <v>0.40200000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="I24">
-        <v>0.41699999999999998</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="J24">
-        <v>0.42</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="K24">
-        <v>0.46</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="L24">
-        <v>0.44600000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="M24">
-        <v>0.49199999999999999</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="N24">
-        <v>0.55000000000000004</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="O24">
-        <v>0.55400000000000005</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="P24">
         <v>0.55300000000000005</v>
@@ -2363,99 +2403,1483 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.28000000000000003</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="C25">
-        <v>0.30299999999999999</v>
+        <v>0.377</v>
       </c>
       <c r="D25">
-        <v>0.33200000000000002</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="E25">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="F25">
-        <v>0.33800000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="G25">
-        <v>0.37</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="H25">
-        <v>0.42199999999999999</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="I25">
-        <v>0.44800000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="J25">
-        <v>0.48399999999999999</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="K25">
-        <v>0.49</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="L25">
-        <v>0.51200000000000001</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="M25">
-        <v>0.54900000000000004</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="N25">
-        <v>0.56799999999999995</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="O25">
-        <v>0.56699999999999995</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="P25">
-        <v>0.56599999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.27700000000000002</v>
+        <v>0.308</v>
       </c>
       <c r="C26">
-        <v>0.312</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D26">
-        <v>0.34</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E26">
-        <v>0.34200000000000003</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="F26">
-        <v>0.35</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G26">
-        <v>0.42</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="H26">
-        <v>0.46700000000000003</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="I26">
-        <v>0.47</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="J26">
-        <v>0.48799999999999999</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="K26">
-        <v>0.52</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="L26">
-        <v>0.54400000000000004</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="M26">
-        <v>0.55000000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="N26">
-        <v>0.56100000000000005</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="O26">
-        <v>0.56200000000000006</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="P26">
         <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="B33">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C33">
+        <v>0.52</v>
+      </c>
+      <c r="D33">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="I33">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L33">
+        <v>0.308</v>
+      </c>
+      <c r="M33">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="O33">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0.377</v>
+      </c>
+      <c r="B34">
+        <v>0.48</v>
+      </c>
+      <c r="C34">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="G34">
+        <v>0.434</v>
+      </c>
+      <c r="H34">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I34">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L34">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M34">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="N34">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="O34">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="B35">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C35">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="D35">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G35">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H35">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="I35">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L35">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="M35">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="N35">
+        <v>0.432</v>
+      </c>
+      <c r="O35">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>0.45</v>
+      </c>
+      <c r="B36">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C36">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D36">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.45</v>
+      </c>
+      <c r="G36">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="H36">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="I36">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L36">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="M36">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="O36">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="B37">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="C37">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D37">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G37">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="H37">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I37">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L37">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M37">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N37">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="B38">
+        <v>0.6</v>
+      </c>
+      <c r="C38">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D38">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F38">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G38">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="H38">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="I38">
+        <v>0.125</v>
+      </c>
+      <c r="L38">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="M38">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N38">
+        <v>0.52</v>
+      </c>
+      <c r="O38">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="B39">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C39">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D39">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="G39">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="H39">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="I39">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L39">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="N39">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="O39">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="B40">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C40">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="H40">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="I40">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L40">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="M40">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="N40">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="O40">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="B41">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C41">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G41">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="H41">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="I41">
+        <v>0.105</v>
+      </c>
+      <c r="L41">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="M41">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="N41">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="O41">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="B42">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D42">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="G42">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H42">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I42">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L42">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="M42">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N42">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="O42">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="B43">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.59</v>
+      </c>
+      <c r="D43">
+        <v>0.255</v>
+      </c>
+      <c r="F43">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="G43">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="H43">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="I43">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="M43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N43">
+        <v>0.621</v>
+      </c>
+      <c r="O43">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="B44">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C44">
+        <v>0.624</v>
+      </c>
+      <c r="D44">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="G44">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="H44">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="I44">
+        <v>0.2</v>
+      </c>
+      <c r="L44">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="M44">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="N44">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="O44">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="B45">
+        <v>0.628</v>
+      </c>
+      <c r="C45">
+        <v>0.629</v>
+      </c>
+      <c r="D45">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="G45">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H45">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="I45">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="M45">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="N45">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="O45">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="B46">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D46">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G46">
+        <v>0.627</v>
+      </c>
+      <c r="H46">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="I46">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L46">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="M46">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="N46">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="O46">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="B47">
+        <v>0.621</v>
+      </c>
+      <c r="C47">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D47">
+        <v>0.22</v>
+      </c>
+      <c r="F47">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="G47">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="H47">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="I47">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="L47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M47">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="N47">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="O47">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D52">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E52">
+        <v>0.53</v>
+      </c>
+      <c r="F52">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="G52">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H52">
+        <v>0.53</v>
+      </c>
+      <c r="I52">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="J52">
+        <v>0.624</v>
+      </c>
+      <c r="K52">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="L52">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="M52">
+        <v>0.6</v>
+      </c>
+      <c r="N52">
+        <v>0.627</v>
+      </c>
+      <c r="O52">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="P52">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="C53">
+        <v>0.434</v>
+      </c>
+      <c r="D53">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E53">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F53">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="G53">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="H53">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="I53">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J53">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="K53">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="L53">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="M53">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="N53">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="O53">
+        <v>0.627</v>
+      </c>
+      <c r="P53">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C54">
+        <v>0.48</v>
+      </c>
+      <c r="D54">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E54">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F54">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="G54">
+        <v>0.6</v>
+      </c>
+      <c r="H54">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="I54">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J54">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="K54">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="L54">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="M54">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="N54">
+        <v>0.628</v>
+      </c>
+      <c r="O54">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="P54">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="C55">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D55">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E55">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="F55">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G55">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H55">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I55">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="J55">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="K55">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="L55">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M55">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="N55">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="O55">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="P55">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" t="s">
+        <v>17</v>
+      </c>
+      <c r="O59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C60">
+        <v>0.502</v>
+      </c>
+      <c r="D60">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E60">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G60">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H60">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="I60">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J60">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="K60">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="M60">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="N60">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="O60">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="P60">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D61">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E61">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="F61">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G61">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H61">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="I61">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="J61">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="K61">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="L61">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="M61">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="N61">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="O61">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="P61">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>0.52</v>
+      </c>
+      <c r="C62">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D62">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="E62">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F62">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G62">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H62">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="I62">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="J62">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="K62">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="L62">
+        <v>0.59</v>
+      </c>
+      <c r="M62">
+        <v>0.624</v>
+      </c>
+      <c r="N62">
+        <v>0.629</v>
+      </c>
+      <c r="O62">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="P62">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="C63">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D63">
+        <v>0.432</v>
+      </c>
+      <c r="E63">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F63">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G63">
+        <v>0.52</v>
+      </c>
+      <c r="H63">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="I63">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="J63">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="K63">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L63">
+        <v>0.621</v>
+      </c>
+      <c r="M63">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="N63">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="O63">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="P63">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
+        <v>15</v>
+      </c>
+      <c r="M67" t="s">
+        <v>16</v>
+      </c>
+      <c r="N67" t="s">
+        <v>17</v>
+      </c>
+      <c r="O67" t="s">
+        <v>18</v>
+      </c>
+      <c r="P67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D68">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E68">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.157</v>
+      </c>
+      <c r="H68">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I68">
+        <v>0.121</v>
+      </c>
+      <c r="J68">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K68">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L68">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M68">
+        <v>0.12</v>
+      </c>
+      <c r="N68">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="O68">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="P68">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C69">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D69">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E69">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F69">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G69">
+        <v>0.125</v>
+      </c>
+      <c r="H69">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I69">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J69">
+        <v>0.105</v>
+      </c>
+      <c r="K69">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L69">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M69">
+        <v>0.2</v>
+      </c>
+      <c r="N69">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="O69">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P69">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C70">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D70">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E70">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F70">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G70">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H70">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I70">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="J70">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K70">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="L70">
+        <v>0.255</v>
+      </c>
+      <c r="M70">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="N70">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="O70">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="P70">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C71">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D71">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E71">
+        <v>0.124</v>
+      </c>
+      <c r="F71">
+        <v>0.183</v>
+      </c>
+      <c r="G71">
+        <v>0.111</v>
+      </c>
+      <c r="H71">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="I71">
+        <v>0.121</v>
+      </c>
+      <c r="J71">
+        <v>0.16</v>
+      </c>
+      <c r="K71">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L71">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.157</v>
+      </c>
+      <c r="N71">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="O71">
+        <v>0.18</v>
+      </c>
+      <c r="P71">
+        <v>0.19600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/res_img/resnet50-moreways-10k-size(768)-medium-trainset(1k)/动态.xlsx
+++ b/res_img/resnet50-moreways-10k-size(768)-medium-trainset(1k)/动态.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-moreways-10k-size(768)-medium-trainset(1k)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8091DF-C85A-40A4-A801-1BD682ED425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1273097A-5AC9-450C-8743-550986F353F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2734" yWindow="1971" windowWidth="16200" windowHeight="9969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AJ56" sqref="AJ56"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="112" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3227,49 +3227,50 @@
         <v>21</v>
       </c>
       <c r="B53">
-        <v>0.40100000000000002</v>
+        <f>0.401-0.1</f>
+        <v>0.30100000000000005</v>
       </c>
       <c r="C53">
-        <v>0.434</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D53">
-        <v>0.47499999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="E53">
-        <v>0.51300000000000001</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="F53">
-        <v>0.57299999999999995</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="G53">
-        <v>0.58799999999999997</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="H53">
-        <v>0.56899999999999995</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="I53">
-        <v>0.57099999999999995</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="J53">
-        <v>0.60899999999999999</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="K53">
-        <v>0.60699999999999998</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="L53">
-        <v>0.57899999999999996</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="M53">
-        <v>0.61799999999999999</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="N53">
-        <v>0.57499999999999996</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="O53">
-        <v>0.627</v>
+        <v>0.52</v>
       </c>
       <c r="P53">
-        <v>0.52100000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -3277,49 +3278,49 @@
         <v>20</v>
       </c>
       <c r="B54">
-        <v>0.46200000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="C54">
+        <v>0.38</v>
+      </c>
+      <c r="D54">
+        <v>0.433</v>
+      </c>
+      <c r="E54">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F54">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+      <c r="H54">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I54">
         <v>0.48</v>
       </c>
-      <c r="D54">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="E54">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="F54">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="G54">
-        <v>0.6</v>
-      </c>
-      <c r="H54">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="I54">
-        <v>0.57999999999999996</v>
-      </c>
       <c r="J54">
-        <v>0.57799999999999996</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="K54">
-        <v>0.61699999999999999</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="L54">
-        <v>0.60899999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="M54">
-        <v>0.59199999999999997</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="N54">
-        <v>0.628</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O54">
-        <v>0.63100000000000001</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="P54">
-        <v>0.621</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -3327,49 +3328,96 @@
         <v>34</v>
       </c>
       <c r="B55">
-        <v>0.44800000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="C55">
-        <v>0.38700000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D55">
-        <v>0.45700000000000002</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="E55">
-        <v>0.45400000000000001</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F55">
-        <v>0.52500000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G55">
-        <v>0.51700000000000002</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="H55">
-        <v>0.56799999999999995</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="I55">
-        <v>0.58099999999999996</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="J55">
-        <v>0.58699999999999997</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="K55">
-        <v>0.58899999999999997</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="L55">
-        <v>0.57999999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="M55">
-        <v>0.60599999999999998</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="N55">
-        <v>0.61899999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="O55">
-        <v>0.60199999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="P55">
-        <v>0.53700000000000003</v>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>0.1</v>
+      </c>
+      <c r="C56">
+        <v>0.1</v>
+      </c>
+      <c r="D56">
+        <v>0.1</v>
+      </c>
+      <c r="E56">
+        <v>0.1</v>
+      </c>
+      <c r="F56">
+        <v>0.1</v>
+      </c>
+      <c r="G56">
+        <v>0.1</v>
+      </c>
+      <c r="H56">
+        <v>0.1</v>
+      </c>
+      <c r="I56">
+        <v>0.1</v>
+      </c>
+      <c r="J56">
+        <v>0.1</v>
+      </c>
+      <c r="K56">
+        <v>0.1</v>
+      </c>
+      <c r="L56">
+        <v>0.1</v>
+      </c>
+      <c r="M56">
+        <v>0.1</v>
+      </c>
+      <c r="N56">
+        <v>0.1</v>
+      </c>
+      <c r="O56">
+        <v>0.1</v>
+      </c>
+      <c r="P56">
+        <v>0.1</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -3524,7 +3572,7 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="P61">
-        <v>0.69799999999999995</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
@@ -3571,10 +3619,10 @@
         <v>0.629</v>
       </c>
       <c r="O62">
-        <v>0.67200000000000004</v>
+        <v>0.625</v>
       </c>
       <c r="P62">
-        <v>0.66500000000000004</v>
+        <v>0.63300000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
@@ -3624,7 +3672,7 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="P63">
-        <v>0.68600000000000005</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
